--- a/media/pattern/медиаплан.xlsx
+++ b/media/pattern/медиаплан.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lida\Desktop\work\plan\media\pattern\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3450" windowWidth="19200" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="4140" windowWidth="19200" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>Клиент/Брэнд</t>
   </si>
@@ -221,9 +226,6 @@
   </si>
   <si>
     <t>% прохождения из кликов в визиты</t>
-  </si>
-  <si>
-    <t>Визиты</t>
   </si>
   <si>
     <t>Показатель отказов</t>
@@ -496,27 +498,6 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -526,14 +507,35 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -816,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO12"/>
+  <dimension ref="A1:DN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DH60" sqref="DH60"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DK10" sqref="DK10:DN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,11 +878,11 @@
     <col min="45" max="45" width="13.5703125" customWidth="1"/>
     <col min="46" max="46" width="12.28515625" customWidth="1"/>
     <col min="47" max="47" width="13.42578125" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.42578125" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -999,9 +1001,8 @@
       <c r="DL1" s="4"/>
       <c r="DM1" s="4"/>
       <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1122,9 +1123,8 @@
       <c r="DL2" s="4"/>
       <c r="DM2" s="4"/>
       <c r="DN2" s="4"/>
-      <c r="DO2" s="4"/>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1245,9 +1245,8 @@
       <c r="DL3" s="4"/>
       <c r="DM3" s="4"/>
       <c r="DN3" s="4"/>
-      <c r="DO3" s="4"/>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1368,9 +1367,8 @@
       <c r="DL4" s="4"/>
       <c r="DM4" s="4"/>
       <c r="DN4" s="4"/>
-      <c r="DO4" s="4"/>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1491,9 +1489,8 @@
       <c r="DL5" s="4"/>
       <c r="DM5" s="4"/>
       <c r="DN5" s="4"/>
-      <c r="DO5" s="4"/>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1614,9 +1611,8 @@
       <c r="DL6" s="4"/>
       <c r="DM6" s="4"/>
       <c r="DN6" s="4"/>
-      <c r="DO6" s="4"/>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1737,9 +1733,8 @@
       <c r="DL7" s="4"/>
       <c r="DM7" s="4"/>
       <c r="DN7" s="4"/>
-      <c r="DO7" s="4"/>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1858,9 +1853,8 @@
       <c r="DL8" s="4"/>
       <c r="DM8" s="4"/>
       <c r="DN8" s="4"/>
-      <c r="DO8" s="4"/>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1979,9 +1973,8 @@
       <c r="DL9" s="4"/>
       <c r="DM9" s="4"/>
       <c r="DN9" s="4"/>
-      <c r="DO9" s="4"/>
     </row>
-    <row r="10" spans="1:119" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1998,179 +1991,178 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15" t="s">
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AC10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AD10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="15" t="s">
+      <c r="AG10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AH10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="17" t="s">
+      <c r="AI10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="25" t="s">
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25" t="s">
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25" t="s">
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
-      <c r="BP10" s="20" t="s">
+      <c r="BL10" s="22"/>
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="20" t="s">
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="20" t="s">
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="20" t="s">
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="21"/>
-      <c r="CI10" s="22"/>
-      <c r="CJ10" s="20" t="s">
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="22"/>
-      <c r="CO10" s="18" t="s">
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="14"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="CP10" s="18"/>
-      <c r="CQ10" s="18"/>
-      <c r="CR10" s="18"/>
-      <c r="CS10" s="18"/>
-      <c r="CT10" s="18" t="s">
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="CU10" s="18"/>
-      <c r="CV10" s="18"/>
-      <c r="CW10" s="18"/>
-      <c r="CX10" s="18"/>
-      <c r="CY10" s="18" t="s">
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="CZ10" s="18"/>
-      <c r="DA10" s="18"/>
-      <c r="DB10" s="18"/>
-      <c r="DC10" s="20"/>
-      <c r="DD10" s="20" t="s">
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DE10" s="21"/>
-      <c r="DF10" s="21"/>
-      <c r="DG10" s="21"/>
-      <c r="DH10" s="22"/>
-      <c r="DI10" s="18" t="s">
+      <c r="DE10" s="14"/>
+      <c r="DF10" s="14"/>
+      <c r="DG10" s="14"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="DJ10" s="18" t="s">
+      <c r="DJ10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="DK10" s="20" t="s">
+      <c r="DK10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="DL10" s="21"/>
-      <c r="DM10" s="21"/>
-      <c r="DN10" s="21"/>
-      <c r="DO10" s="21"/>
+      <c r="DL10" s="14"/>
+      <c r="DM10" s="14"/>
+      <c r="DN10" s="14"/>
     </row>
-    <row r="11" spans="1:119" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2187,61 +2179,61 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15" t="s">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AJ11" s="15" t="s">
+      <c r="AJ11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AK11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="15" t="s">
+      <c r="AL11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AM11" s="15" t="s">
+      <c r="AM11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AN11" s="15" t="s">
+      <c r="AN11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AO11" s="15" t="s">
+      <c r="AO11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AP11" s="15" t="s">
+      <c r="AP11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AQ11" s="15" t="s">
+      <c r="AQ11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AR11" s="15" t="s">
+      <c r="AR11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AS11" s="15" t="s">
+      <c r="AS11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AT11" s="15" t="s">
+      <c r="AT11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AU11" s="15" t="s">
+      <c r="AU11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="AV11" s="11">
@@ -2502,25 +2494,22 @@
         <f>CF10</f>
         <v>0</v>
       </c>
-      <c r="DI11" s="18"/>
-      <c r="DJ11" s="18"/>
-      <c r="DK11" s="23" t="s">
+      <c r="DI11" s="16"/>
+      <c r="DJ11" s="16"/>
+      <c r="DK11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="DL11" s="23" t="s">
+      <c r="DL11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="DM11" s="23" t="s">
+      <c r="DM11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="DN11" s="23" t="s">
+      <c r="DN11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="DO11" s="23" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="12" spans="1:119" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -2569,37 +2558,37 @@
       <c r="P12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
       <c r="AV12" s="10">
         <f>AV11+3</f>
         <v>43834</v>
@@ -2841,41 +2830,54 @@
         <v>44196</v>
       </c>
       <c r="DD12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DE12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="DE12" s="2" t="s">
+      <c r="DF12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="DF12" s="2" t="s">
+      <c r="DG12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="DG12" s="2" t="s">
+      <c r="DH12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="DH12" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="DI12" s="19"/>
       <c r="DJ12" s="19"/>
-      <c r="DK12" s="24"/>
-      <c r="DL12" s="24"/>
-      <c r="DM12" s="24"/>
-      <c r="DN12" s="24"/>
-      <c r="DO12" s="24"/>
+      <c r="DK12" s="18"/>
+      <c r="DL12" s="18"/>
+      <c r="DM12" s="18"/>
+      <c r="DN12" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="DK10:DO10"/>
-    <mergeCell ref="DK11:DK12"/>
-    <mergeCell ref="DL11:DL12"/>
-    <mergeCell ref="DM11:DM12"/>
-    <mergeCell ref="DN11:DN12"/>
-    <mergeCell ref="DO11:DO12"/>
+  <mergeCells count="51">
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="Y10:Z12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AI10:AU10"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AH10:AH12"/>
     <mergeCell ref="DJ10:DJ12"/>
     <mergeCell ref="DD10:DH10"/>
     <mergeCell ref="DI10:DI12"/>
@@ -2892,31 +2894,16 @@
     <mergeCell ref="BP10:BT10"/>
     <mergeCell ref="CT10:CX10"/>
     <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="Y10:Z12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AI10:AU10"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="DK11:DK12"/>
+    <mergeCell ref="DL11:DL12"/>
+    <mergeCell ref="DM11:DM12"/>
+    <mergeCell ref="DN11:DN12"/>
+    <mergeCell ref="DK10:DN10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/pattern/медиаплан.xlsx
+++ b/media/pattern/медиаплан.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4140" windowWidth="19200" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="4830" windowWidth="19200" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -498,6 +498,27 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,7 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,27 +536,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DK10" sqref="DK10:DN10"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DH23" sqref="DH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,176 +1991,176 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AC10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AF10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AH10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="23" t="s">
+      <c r="AI10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="22" t="s">
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22" t="s">
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22" t="s">
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22" t="s">
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="23"/>
+      <c r="BK10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="13" t="s">
+      <c r="BL10" s="23"/>
+      <c r="BM10" s="23"/>
+      <c r="BN10" s="23"/>
+      <c r="BO10" s="23"/>
+      <c r="BP10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="BQ10" s="14"/>
-      <c r="BR10" s="14"/>
-      <c r="BS10" s="14"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="13" t="s">
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="BV10" s="14"/>
-      <c r="BW10" s="14"/>
-      <c r="BX10" s="14"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="13" t="s">
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="22"/>
+      <c r="BZ10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="CA10" s="14"/>
-      <c r="CB10" s="14"/>
-      <c r="CC10" s="14"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="13" t="s">
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="CF10" s="14"/>
-      <c r="CG10" s="14"/>
-      <c r="CH10" s="14"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="13" t="s">
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="22"/>
+      <c r="CJ10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="CK10" s="14"/>
-      <c r="CL10" s="14"/>
-      <c r="CM10" s="14"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="16" t="s">
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="22"/>
+      <c r="CO10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="CP10" s="16"/>
-      <c r="CQ10" s="16"/>
-      <c r="CR10" s="16"/>
-      <c r="CS10" s="16"/>
-      <c r="CT10" s="16" t="s">
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="CU10" s="16"/>
-      <c r="CV10" s="16"/>
-      <c r="CW10" s="16"/>
-      <c r="CX10" s="16"/>
-      <c r="CY10" s="16" t="s">
+      <c r="CU10" s="18"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="CZ10" s="16"/>
-      <c r="DA10" s="16"/>
-      <c r="DB10" s="16"/>
-      <c r="DC10" s="13"/>
-      <c r="DD10" s="13" t="s">
+      <c r="CZ10" s="18"/>
+      <c r="DA10" s="18"/>
+      <c r="DB10" s="18"/>
+      <c r="DC10" s="20"/>
+      <c r="DD10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="DE10" s="14"/>
-      <c r="DF10" s="14"/>
-      <c r="DG10" s="14"/>
-      <c r="DH10" s="15"/>
-      <c r="DI10" s="16" t="s">
+      <c r="DE10" s="21"/>
+      <c r="DF10" s="21"/>
+      <c r="DG10" s="21"/>
+      <c r="DH10" s="22"/>
+      <c r="DI10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="DJ10" s="16" t="s">
+      <c r="DJ10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="DK10" s="13" t="s">
+      <c r="DK10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="DL10" s="14"/>
-      <c r="DM10" s="14"/>
-      <c r="DN10" s="14"/>
+      <c r="DL10" s="21"/>
+      <c r="DM10" s="21"/>
+      <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2179,61 +2179,61 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20" t="s">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AJ11" s="20" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AK11" s="20" t="s">
+      <c r="AK11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="20" t="s">
+      <c r="AL11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AM11" s="20" t="s">
+      <c r="AM11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AN11" s="20" t="s">
+      <c r="AN11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AO11" s="20" t="s">
+      <c r="AO11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AP11" s="20" t="s">
+      <c r="AP11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AQ11" s="20" t="s">
+      <c r="AQ11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AR11" s="20" t="s">
+      <c r="AR11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AS11" s="20" t="s">
+      <c r="AS11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AT11" s="20" t="s">
+      <c r="AT11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AU11" s="20" t="s">
+      <c r="AU11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="AV11" s="11">
@@ -2241,19 +2241,19 @@
       </c>
       <c r="AW11" s="11">
         <f>AV12+1</f>
-        <v>43835</v>
+        <v>43838</v>
       </c>
       <c r="AX11" s="11">
         <f t="shared" ref="AX11" si="0">AW12+1</f>
-        <v>43842</v>
+        <v>43845</v>
       </c>
       <c r="AY11" s="11">
         <f t="shared" ref="AY11" si="1">AX12+1</f>
-        <v>43849</v>
+        <v>43852</v>
       </c>
       <c r="AZ11" s="11">
         <f t="shared" ref="AZ11:BA11" si="2">AY12+1</f>
-        <v>43856</v>
+        <v>43859</v>
       </c>
       <c r="BA11" s="11">
         <f t="shared" si="2"/>
@@ -2261,219 +2261,219 @@
       </c>
       <c r="BB11" s="11">
         <f t="shared" ref="BB11" si="3">BA12+1</f>
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="BC11" s="11">
         <f t="shared" ref="BC11" si="4">BB12+1</f>
-        <v>43874</v>
+        <v>43876</v>
       </c>
       <c r="BD11" s="11">
         <f t="shared" ref="BD11" si="5">BC12+1</f>
-        <v>43880</v>
+        <v>43883</v>
       </c>
       <c r="BE11" s="11">
         <f t="shared" ref="BE11" si="6">BD12+1</f>
-        <v>43886</v>
+        <v>43890</v>
       </c>
       <c r="BF11" s="11">
-        <f t="shared" ref="BF11" si="7">BE12+1</f>
+        <f>BE11+1</f>
         <v>43891</v>
       </c>
       <c r="BG11" s="11">
-        <f t="shared" ref="BG11" si="8">BF12+1</f>
-        <v>43897</v>
+        <f t="shared" ref="BG11" si="7">BF12+1</f>
+        <v>43898</v>
       </c>
       <c r="BH11" s="11">
-        <f t="shared" ref="BH11" si="9">BG12+1</f>
-        <v>43903</v>
+        <f t="shared" ref="BH11" si="8">BG12+1</f>
+        <v>43905</v>
       </c>
       <c r="BI11" s="11">
-        <f t="shared" ref="BI11" si="10">BH12+1</f>
-        <v>43909</v>
+        <f t="shared" ref="BI11" si="9">BH12+1</f>
+        <v>43912</v>
       </c>
       <c r="BJ11" s="11">
-        <f t="shared" ref="BJ11" si="11">BI12+1</f>
-        <v>43915</v>
+        <f t="shared" ref="BJ11" si="10">BI12+1</f>
+        <v>43919</v>
       </c>
       <c r="BK11" s="11">
-        <f t="shared" ref="BK11" si="12">BJ12+1</f>
+        <f t="shared" ref="BK11" si="11">BJ12+1</f>
         <v>43922</v>
       </c>
       <c r="BL11" s="11">
-        <f t="shared" ref="BL11" si="13">BK12+1</f>
-        <v>43928</v>
+        <f t="shared" ref="BL11" si="12">BK12+1</f>
+        <v>43929</v>
       </c>
       <c r="BM11" s="11">
-        <f t="shared" ref="BM11" si="14">BL12+1</f>
-        <v>43934</v>
+        <f t="shared" ref="BM11" si="13">BL12+1</f>
+        <v>43936</v>
       </c>
       <c r="BN11" s="11">
-        <f t="shared" ref="BN11" si="15">BM12+1</f>
-        <v>43940</v>
+        <f t="shared" ref="BN11" si="14">BM12+1</f>
+        <v>43943</v>
       </c>
       <c r="BO11" s="11">
-        <f t="shared" ref="BO11:BP11" si="16">BN12+1</f>
-        <v>43946</v>
+        <f t="shared" ref="BO11:BP11" si="15">BN12+1</f>
+        <v>43950</v>
       </c>
       <c r="BP11" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43952</v>
       </c>
       <c r="BQ11" s="11">
-        <f t="shared" ref="BQ11:DC11" si="17">BP12+1</f>
-        <v>43957</v>
+        <f t="shared" ref="BQ11:DC11" si="16">BP12+1</f>
+        <v>43959</v>
       </c>
       <c r="BR11" s="11">
-        <f t="shared" si="17"/>
-        <v>43964</v>
+        <f t="shared" si="16"/>
+        <v>43966</v>
       </c>
       <c r="BS11" s="11">
-        <f t="shared" si="17"/>
-        <v>43971</v>
+        <f t="shared" si="16"/>
+        <v>43973</v>
       </c>
       <c r="BT11" s="11">
-        <f t="shared" si="17"/>
-        <v>43978</v>
+        <f t="shared" si="16"/>
+        <v>43980</v>
       </c>
       <c r="BU11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43983</v>
       </c>
       <c r="BV11" s="11">
-        <f t="shared" si="17"/>
-        <v>43988</v>
+        <f t="shared" si="16"/>
+        <v>43990</v>
       </c>
       <c r="BW11" s="11">
-        <f t="shared" si="17"/>
-        <v>43995</v>
+        <f t="shared" si="16"/>
+        <v>43997</v>
       </c>
       <c r="BX11" s="11">
-        <f t="shared" si="17"/>
-        <v>44002</v>
+        <f t="shared" si="16"/>
+        <v>44004</v>
       </c>
       <c r="BY11" s="11">
-        <f t="shared" si="17"/>
-        <v>44009</v>
+        <f t="shared" si="16"/>
+        <v>44011</v>
       </c>
       <c r="BZ11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44013</v>
       </c>
       <c r="CA11" s="11">
-        <f t="shared" si="17"/>
-        <v>44018</v>
+        <f t="shared" si="16"/>
+        <v>44020</v>
       </c>
       <c r="CB11" s="11">
-        <f t="shared" si="17"/>
-        <v>44025</v>
+        <f t="shared" si="16"/>
+        <v>44027</v>
       </c>
       <c r="CC11" s="11">
-        <f t="shared" si="17"/>
-        <v>44032</v>
+        <f t="shared" si="16"/>
+        <v>44034</v>
       </c>
       <c r="CD11" s="11">
-        <f t="shared" si="17"/>
-        <v>44039</v>
+        <f t="shared" si="16"/>
+        <v>44041</v>
       </c>
       <c r="CE11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44044</v>
       </c>
       <c r="CF11" s="11">
-        <f t="shared" si="17"/>
-        <v>44049</v>
+        <f t="shared" si="16"/>
+        <v>44051</v>
       </c>
       <c r="CG11" s="11">
-        <f t="shared" si="17"/>
-        <v>44056</v>
+        <f t="shared" si="16"/>
+        <v>44058</v>
       </c>
       <c r="CH11" s="11">
-        <f t="shared" si="17"/>
-        <v>44063</v>
+        <f t="shared" si="16"/>
+        <v>44065</v>
       </c>
       <c r="CI11" s="11">
-        <f t="shared" si="17"/>
-        <v>44070</v>
+        <f t="shared" si="16"/>
+        <v>44072</v>
       </c>
       <c r="CJ11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44075</v>
       </c>
       <c r="CK11" s="11">
-        <f t="shared" si="17"/>
-        <v>44080</v>
+        <f t="shared" si="16"/>
+        <v>44082</v>
       </c>
       <c r="CL11" s="11">
-        <f t="shared" si="17"/>
-        <v>44087</v>
+        <f t="shared" si="16"/>
+        <v>44089</v>
       </c>
       <c r="CM11" s="11">
-        <f t="shared" si="17"/>
-        <v>44094</v>
+        <f t="shared" si="16"/>
+        <v>44096</v>
       </c>
       <c r="CN11" s="11">
-        <f t="shared" si="17"/>
-        <v>44101</v>
+        <f t="shared" si="16"/>
+        <v>44103</v>
       </c>
       <c r="CO11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44105</v>
       </c>
       <c r="CP11" s="11">
-        <f t="shared" si="17"/>
-        <v>44110</v>
+        <f t="shared" si="16"/>
+        <v>44112</v>
       </c>
       <c r="CQ11" s="11">
-        <f t="shared" si="17"/>
-        <v>44117</v>
+        <f t="shared" si="16"/>
+        <v>44119</v>
       </c>
       <c r="CR11" s="11">
-        <f t="shared" si="17"/>
-        <v>44124</v>
+        <f t="shared" si="16"/>
+        <v>44126</v>
       </c>
       <c r="CS11" s="11">
-        <f t="shared" si="17"/>
-        <v>44131</v>
+        <f t="shared" si="16"/>
+        <v>44133</v>
       </c>
       <c r="CT11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44136</v>
       </c>
       <c r="CU11" s="11">
-        <f t="shared" si="17"/>
-        <v>44141</v>
+        <f t="shared" si="16"/>
+        <v>44143</v>
       </c>
       <c r="CV11" s="11">
-        <f t="shared" si="17"/>
-        <v>44148</v>
+        <f t="shared" si="16"/>
+        <v>44150</v>
       </c>
       <c r="CW11" s="11">
-        <f t="shared" si="17"/>
-        <v>44155</v>
+        <f t="shared" si="16"/>
+        <v>44157</v>
       </c>
       <c r="CX11" s="11">
-        <f t="shared" si="17"/>
-        <v>44162</v>
+        <f t="shared" si="16"/>
+        <v>44164</v>
       </c>
       <c r="CY11" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44166</v>
       </c>
       <c r="CZ11" s="11">
-        <f t="shared" si="17"/>
-        <v>44171</v>
+        <f t="shared" si="16"/>
+        <v>44173</v>
       </c>
       <c r="DA11" s="11">
-        <f t="shared" si="17"/>
-        <v>44178</v>
+        <f t="shared" si="16"/>
+        <v>44180</v>
       </c>
       <c r="DB11" s="11">
-        <f t="shared" si="17"/>
-        <v>44185</v>
+        <f t="shared" si="16"/>
+        <v>44187</v>
       </c>
       <c r="DC11" s="12">
-        <f t="shared" si="17"/>
-        <v>44192</v>
+        <f t="shared" si="16"/>
+        <v>44194</v>
       </c>
       <c r="DD11" s="1" t="s">
         <v>52</v>
@@ -2494,18 +2494,18 @@
         <f>CF10</f>
         <v>0</v>
       </c>
-      <c r="DI11" s="16"/>
-      <c r="DJ11" s="16"/>
-      <c r="DK11" s="17" t="s">
+      <c r="DI11" s="18"/>
+      <c r="DJ11" s="18"/>
+      <c r="DK11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="DL11" s="17" t="s">
+      <c r="DL11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="DM11" s="17" t="s">
+      <c r="DM11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="DN11" s="17" t="s">
+      <c r="DN11" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2558,275 +2558,272 @@
       <c r="P12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
       <c r="AV12" s="10">
-        <f>AV11+3</f>
-        <v>43834</v>
+        <f>AV11+6</f>
+        <v>43837</v>
       </c>
       <c r="AW12" s="10">
-        <f t="shared" ref="AW12:AY12" si="18">AW11+6</f>
-        <v>43841</v>
+        <f t="shared" ref="AW12:AY12" si="17">AW11+6</f>
+        <v>43844</v>
       </c>
       <c r="AX12" s="10">
+        <f t="shared" si="17"/>
+        <v>43851</v>
+      </c>
+      <c r="AY12" s="10">
+        <f t="shared" si="17"/>
+        <v>43858</v>
+      </c>
+      <c r="AZ12" s="10">
+        <f>AZ11+2</f>
+        <v>43861</v>
+      </c>
+      <c r="BA12" s="10">
+        <f>BA11+6</f>
+        <v>43868</v>
+      </c>
+      <c r="BB12" s="10">
+        <f>BB11+6</f>
+        <v>43875</v>
+      </c>
+      <c r="BC12" s="10">
+        <f>BC11+6</f>
+        <v>43882</v>
+      </c>
+      <c r="BD12" s="10">
+        <f>BD11+6</f>
+        <v>43889</v>
+      </c>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10">
+        <f>BF11+6</f>
+        <v>43897</v>
+      </c>
+      <c r="BG12" s="10">
+        <f>BG11+6</f>
+        <v>43904</v>
+      </c>
+      <c r="BH12" s="10">
+        <f t="shared" ref="BH12:BI12" si="18">BH11+6</f>
+        <v>43911</v>
+      </c>
+      <c r="BI12" s="10">
         <f t="shared" si="18"/>
-        <v>43848</v>
-      </c>
-      <c r="AY12" s="10">
-        <f t="shared" si="18"/>
-        <v>43855</v>
-      </c>
-      <c r="AZ12" s="10">
-        <f>AZ11+5</f>
-        <v>43861</v>
-      </c>
-      <c r="BA12" s="10">
-        <f t="shared" ref="BA12:BC12" si="19">BA11+5</f>
-        <v>43867</v>
-      </c>
-      <c r="BB12" s="10">
+        <v>43918</v>
+      </c>
+      <c r="BJ12" s="10">
+        <f>BJ11+2</f>
+        <v>43921</v>
+      </c>
+      <c r="BK12" s="10">
+        <f>BK11+6</f>
+        <v>43928</v>
+      </c>
+      <c r="BL12" s="10">
+        <f t="shared" ref="BL12:BN12" si="19">BL11+6</f>
+        <v>43935</v>
+      </c>
+      <c r="BM12" s="10">
         <f t="shared" si="19"/>
-        <v>43873</v>
-      </c>
-      <c r="BC12" s="10">
+        <v>43942</v>
+      </c>
+      <c r="BN12" s="10">
         <f t="shared" si="19"/>
-        <v>43879</v>
-      </c>
-      <c r="BD12" s="10">
-        <f t="shared" ref="BD12" si="20">BD11+5</f>
-        <v>43885</v>
-      </c>
-      <c r="BE12" s="10">
-        <f>BE11+4</f>
-        <v>43890</v>
-      </c>
-      <c r="BF12" s="10">
-        <f t="shared" ref="BF12" si="21">BF11+5</f>
-        <v>43896</v>
-      </c>
-      <c r="BG12" s="10">
-        <f t="shared" ref="BG12" si="22">BG11+5</f>
-        <v>43902</v>
-      </c>
-      <c r="BH12" s="10">
-        <f t="shared" ref="BH12:BI12" si="23">BH11+5</f>
-        <v>43908</v>
-      </c>
-      <c r="BI12" s="10">
-        <f t="shared" si="23"/>
-        <v>43914</v>
-      </c>
-      <c r="BJ12" s="10">
-        <f>BJ11+6</f>
-        <v>43921</v>
-      </c>
-      <c r="BK12" s="10">
-        <f t="shared" ref="BK12:BL12" si="24">BK11+5</f>
-        <v>43927</v>
-      </c>
-      <c r="BL12" s="10">
-        <f t="shared" si="24"/>
-        <v>43933</v>
-      </c>
-      <c r="BM12" s="10">
-        <f>BM11+5</f>
-        <v>43939</v>
-      </c>
-      <c r="BN12" s="10">
-        <f t="shared" ref="BN12" si="25">BN11+5</f>
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="BO12" s="10">
-        <f>BO11+5</f>
+        <f>BO11+1</f>
         <v>43951</v>
       </c>
       <c r="BP12" s="10">
-        <f>BP11+4</f>
-        <v>43956</v>
+        <f>BP11+6</f>
+        <v>43958</v>
       </c>
       <c r="BQ12" s="10">
-        <f>BQ11+6</f>
-        <v>43963</v>
+        <f t="shared" ref="BQ12:BS12" si="20">BQ11+6</f>
+        <v>43965</v>
       </c>
       <c r="BR12" s="10">
-        <f>BR11+6</f>
-        <v>43970</v>
+        <f t="shared" si="20"/>
+        <v>43972</v>
       </c>
       <c r="BS12" s="10">
-        <f>BS11+6</f>
-        <v>43977</v>
+        <f t="shared" si="20"/>
+        <v>43979</v>
       </c>
       <c r="BT12" s="10">
-        <f>BT11+4</f>
+        <f>BT11+2</f>
         <v>43982</v>
       </c>
       <c r="BU12" s="10">
-        <f>BU11+4</f>
-        <v>43987</v>
+        <f>BU11+6</f>
+        <v>43989</v>
       </c>
       <c r="BV12" s="10">
-        <f>BV11+6</f>
-        <v>43994</v>
+        <f t="shared" ref="BV12:BX12" si="21">BV11+6</f>
+        <v>43996</v>
       </c>
       <c r="BW12" s="10">
-        <f>BW11+6</f>
-        <v>44001</v>
+        <f t="shared" si="21"/>
+        <v>44003</v>
       </c>
       <c r="BX12" s="10">
-        <f>BX11+6</f>
-        <v>44008</v>
+        <f t="shared" si="21"/>
+        <v>44010</v>
       </c>
       <c r="BY12" s="10">
-        <f>BY11+3</f>
+        <f>BY11+1</f>
         <v>44012</v>
       </c>
       <c r="BZ12" s="10">
-        <f>BZ11+4</f>
-        <v>44017</v>
+        <f>BZ11+6</f>
+        <v>44019</v>
       </c>
       <c r="CA12" s="10">
-        <f>CA11+6</f>
-        <v>44024</v>
+        <f t="shared" ref="CA12:CC12" si="22">CA11+6</f>
+        <v>44026</v>
       </c>
       <c r="CB12" s="10">
-        <f>CB11+6</f>
-        <v>44031</v>
+        <f t="shared" si="22"/>
+        <v>44033</v>
       </c>
       <c r="CC12" s="10">
-        <f>CC11+6</f>
-        <v>44038</v>
+        <f t="shared" si="22"/>
+        <v>44040</v>
       </c>
       <c r="CD12" s="10">
-        <f>CD11+4</f>
+        <f>CD11+2</f>
         <v>44043</v>
       </c>
       <c r="CE12" s="10">
-        <f>CE11+4</f>
-        <v>44048</v>
+        <f>CE11+6</f>
+        <v>44050</v>
       </c>
       <c r="CF12" s="10">
         <f>CF11+6</f>
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="CG12" s="10">
         <f>CG11+6</f>
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="CH12" s="10">
         <f>CH11+6</f>
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="CI12" s="10">
-        <f>CI11+4</f>
+        <f>CI11+2</f>
         <v>44074</v>
       </c>
       <c r="CJ12" s="10">
-        <f>CJ11+4</f>
-        <v>44079</v>
+        <f>CJ11+6</f>
+        <v>44081</v>
       </c>
       <c r="CK12" s="10">
         <f>CK11+6</f>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="CL12" s="10">
         <f>CL11+6</f>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="CM12" s="10">
         <f>CM11+6</f>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="CN12" s="10">
-        <f>CN11+3</f>
+        <f>CN11+1</f>
         <v>44104</v>
       </c>
       <c r="CO12" s="10">
-        <f>CO11+4</f>
-        <v>44109</v>
+        <f>CO11+6</f>
+        <v>44111</v>
       </c>
       <c r="CP12" s="10">
         <f>CP11+6</f>
-        <v>44116</v>
+        <v>44118</v>
       </c>
       <c r="CQ12" s="10">
-        <f t="shared" ref="CQ12:DB12" si="26">CQ11+6</f>
-        <v>44123</v>
+        <f t="shared" ref="CQ12:DB12" si="23">CQ11+6</f>
+        <v>44125</v>
       </c>
       <c r="CR12" s="10">
-        <f t="shared" si="26"/>
-        <v>44130</v>
+        <f t="shared" si="23"/>
+        <v>44132</v>
       </c>
       <c r="CS12" s="10">
-        <f>CS11+4</f>
+        <f>CS11+2</f>
         <v>44135</v>
       </c>
       <c r="CT12" s="10">
-        <f>CT11+4</f>
-        <v>44140</v>
+        <f>CT11+6</f>
+        <v>44142</v>
       </c>
       <c r="CU12" s="10">
-        <f t="shared" si="26"/>
-        <v>44147</v>
+        <f t="shared" si="23"/>
+        <v>44149</v>
       </c>
       <c r="CV12" s="10">
-        <f t="shared" si="26"/>
-        <v>44154</v>
+        <f t="shared" si="23"/>
+        <v>44156</v>
       </c>
       <c r="CW12" s="10">
-        <f t="shared" si="26"/>
-        <v>44161</v>
+        <f t="shared" si="23"/>
+        <v>44163</v>
       </c>
       <c r="CX12" s="10">
-        <f>CX11+3</f>
+        <f>CX11+1</f>
         <v>44165</v>
       </c>
       <c r="CY12" s="10">
-        <f>CY11+4</f>
-        <v>44170</v>
+        <f>CY11+6</f>
+        <v>44172</v>
       </c>
       <c r="CZ12" s="10">
-        <f t="shared" si="26"/>
-        <v>44177</v>
+        <f t="shared" si="23"/>
+        <v>44179</v>
       </c>
       <c r="DA12" s="10">
-        <f t="shared" si="26"/>
-        <v>44184</v>
+        <f t="shared" si="23"/>
+        <v>44186</v>
       </c>
       <c r="DB12" s="10">
-        <f t="shared" si="26"/>
-        <v>44191</v>
+        <f t="shared" si="23"/>
+        <v>44193</v>
       </c>
       <c r="DC12" s="10">
-        <f>DC11+4</f>
+        <f>DC11+2</f>
         <v>44196</v>
       </c>
       <c r="DD12" s="2" t="s">
@@ -2846,22 +2843,39 @@
       </c>
       <c r="DI12" s="19"/>
       <c r="DJ12" s="19"/>
-      <c r="DK12" s="18"/>
-      <c r="DL12" s="18"/>
-      <c r="DM12" s="18"/>
-      <c r="DN12" s="18"/>
+      <c r="DK12" s="25"/>
+      <c r="DL12" s="25"/>
+      <c r="DM12" s="25"/>
+      <c r="DN12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="DK11:DK12"/>
+    <mergeCell ref="DL11:DL12"/>
+    <mergeCell ref="DM11:DM12"/>
+    <mergeCell ref="DN11:DN12"/>
+    <mergeCell ref="DK10:DN10"/>
+    <mergeCell ref="DJ10:DJ12"/>
+    <mergeCell ref="DD10:DH10"/>
+    <mergeCell ref="DI10:DI12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
     <mergeCell ref="AB10:AB12"/>
     <mergeCell ref="Y10:Z12"/>
     <mergeCell ref="AI11:AI12"/>
@@ -2878,32 +2892,15 @@
     <mergeCell ref="AF10:AF12"/>
     <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="DJ10:DJ12"/>
-    <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="DI10:DI12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="DK11:DK12"/>
-    <mergeCell ref="DL11:DL12"/>
-    <mergeCell ref="DM11:DM12"/>
-    <mergeCell ref="DN11:DN12"/>
-    <mergeCell ref="DK10:DN10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/pattern/медиаплан.xlsx
+++ b/media/pattern/медиаплан.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyd\Desktop\work\sites\plan\media\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45508BD2-FC76-4E58-B21F-7F5B6DA78591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46AA17-52F3-4B68-B4AF-E9010C602788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3405" yWindow="3840" windowWidth="22335" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17535" yWindow="3435" windowWidth="22335" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -403,13 +403,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -441,21 +465,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +476,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,8 +813,8 @@
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
     <col min="20" max="20" width="37.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="16.85546875" customWidth="1"/>
     <col min="24" max="24" width="17.140625" customWidth="1"/>
     <col min="25" max="25" width="6" customWidth="1"/>
@@ -1942,10 +1972,10 @@
       <c r="T10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="W10" s="12" t="s">
@@ -1954,133 +1984,133 @@
       <c r="X10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14" t="s">
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AE10" s="14" t="s">
+      <c r="AE10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="14" t="s">
+      <c r="AF10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AH10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="16" t="s">
+      <c r="AI10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="17" t="s">
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17" t="s">
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17" t="s">
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17" t="s">
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="18" t="s">
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BQ10" s="19"/>
-      <c r="BR10" s="19"/>
-      <c r="BS10" s="19"/>
-      <c r="BT10" s="20"/>
-      <c r="BU10" s="18" t="s">
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="20"/>
-      <c r="BZ10" s="18" t="s">
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="CA10" s="19"/>
-      <c r="CB10" s="19"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="20"/>
-      <c r="CE10" s="18" t="s">
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CF10" s="19"/>
-      <c r="CG10" s="19"/>
-      <c r="CH10" s="19"/>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="18" t="s">
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="CK10" s="19"/>
-      <c r="CL10" s="19"/>
-      <c r="CM10" s="19"/>
-      <c r="CN10" s="20"/>
-      <c r="CO10" s="21" t="s">
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="14"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="CP10" s="21"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21" t="s">
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="CU10" s="21"/>
-      <c r="CV10" s="21"/>
-      <c r="CW10" s="21"/>
-      <c r="CX10" s="21"/>
-      <c r="CY10" s="21" t="s">
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="CZ10" s="21"/>
-      <c r="DA10" s="21"/>
-      <c r="DB10" s="21"/>
-      <c r="DC10" s="18"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="13"/>
     </row>
     <row r="11" spans="1:119" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -2103,57 +2133,57 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14" t="s">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AJ11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AK11" s="14" t="s">
+      <c r="AK11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="14" t="s">
+      <c r="AL11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AM11" s="14" t="s">
+      <c r="AM11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AN11" s="14" t="s">
+      <c r="AN11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AO11" s="14" t="s">
+      <c r="AO11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AP11" s="14" t="s">
+      <c r="AP11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AQ11" s="14" t="s">
+      <c r="AQ11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AR11" s="14" t="s">
+      <c r="AR11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AS11" s="14" t="s">
+      <c r="AS11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AT11" s="14" t="s">
+      <c r="AT11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AU11" s="14" t="s">
+      <c r="AU11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="AV11" s="9">
@@ -2445,37 +2475,37 @@
       <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
       <c r="AV12" s="8">
         <f>AV11+6</f>
         <v>43837</v>
@@ -2716,26 +2746,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="Y10:Z12"/>
+    <mergeCell ref="V10:V12"/>
     <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="Y10:Z12"/>
     <mergeCell ref="AI11:AI12"/>
     <mergeCell ref="AI10:AU10"/>
     <mergeCell ref="AJ11:AJ12"/>
@@ -2750,15 +2766,29 @@
     <mergeCell ref="AF10:AF12"/>
     <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="R10:R12"/>
     <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
